--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ladik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2CFFC4-4CFB-49BA-AC5E-46838D2B1568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334BEE69-E4A1-4001-ACF4-02494427A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ризики" sheetId="1" r:id="rId1"/>
     <sheet name="Люди" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -246,7 +246,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +259,14 @@
         <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -268,11 +274,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,20 +303,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -304,6 +337,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF9C3BF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -518,8 +556,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -531,7 +569,7 @@
     <col min="5" max="5" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="13.453125" customWidth="1"/>
     <col min="7" max="7" width="21.26953125" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" customWidth="1"/>
     <col min="9" max="9" width="15.7265625" customWidth="1"/>
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
   </cols>
@@ -569,508 +607,508 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11">
+        <f t="shared" ref="F2:F21" si="0">D2*E2</f>
+        <v>2.7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="11">
         <v>0.65</v>
       </c>
-      <c r="E2" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="F2" s="7">
-        <f t="shared" ref="F2:F21" si="0">D2*E2</f>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E3" s="11">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="100" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E3" s="7">
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="100" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
@@ -1078,6 +1116,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition descending="1" ref="F2:F21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -1132,7 +1173,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ladik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334BEE69-E4A1-4001-ACF4-02494427A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BEA2D1-14F0-482E-9B07-D1CD233E061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,30 +77,9 @@
 Перш ніж заповнювати цю таблицю замініть прізвища на листі "Люди" аби мати змогу обирати їх у графі "Відповідальний"!</t>
   </si>
   <si>
-    <t>Ризик перевантаження сервера за великої кількості користувачів</t>
-  </si>
-  <si>
-    <t>Збої в роботі веб клієнта</t>
-  </si>
-  <si>
-    <t>Провести попереднє навантажувальне тестування та обмежити максимальну кількість користувачів</t>
-  </si>
-  <si>
-    <t>Перезапуск серверу</t>
-  </si>
-  <si>
-    <t>Велика кількість відвідувачів Дня відкритих дверей</t>
-  </si>
-  <si>
     <t>Кабановський І.В.</t>
   </si>
   <si>
-    <t xml:space="preserve">Слабкий GPS сигнал в будівлі </t>
-  </si>
-  <si>
-    <t>Некоректна робота програми</t>
-  </si>
-  <si>
     <t>Гарно спланувати ключові точки маршруту, додати QR-мітки з геопозицією на них</t>
   </si>
   <si>
@@ -123,52 +102,6 @@
   </si>
   <si>
     <t>Просрочка здачі завдань</t>
-  </si>
-  <si>
-    <t>Проблеми з відображенням на різних пристроях</t>
-  </si>
-  <si>
-    <t>Частина інтерфейсу прихована, кнопки не натискаються, застосунком незручно користуватися</t>
-  </si>
-  <si>
-    <t>Перед запуском провести тестування на різних пристроях і браузерах</t>
-  </si>
-  <si>
-    <t>Передбачити можливість прокручування або зміни масштабу вручну</t>
-  </si>
-  <si>
-    <t>Відгуки користувачів про некоректне відображення</t>
-  </si>
-  <si>
-    <t>Користувач відключив GPS або не дав дозвіл на використання геолокації</t>
-  </si>
-  <si>
-    <t>Застосунок не може визначити місцеперебування користувача</t>
-  </si>
-  <si>
-    <t>Створити пошагову інструкцію з виправлення проблем, а також текстовий варіант вказівок для маршруту</t>
-  </si>
-  <si>
-    <t>Якщо не вдається отримати дані про місцезнаходження, висвітити відповідне повідомлення і запропонувати інструкцію або текстовий режим</t>
-  </si>
-  <si>
-    <t>Не вдалося отримати дані про місцезнаходження</t>
-  </si>
-  <si>
-    <t>Несумісність додатка зі старими версіями браузера</t>
-  </si>
-  <si>
-    <t>Частина користувачів не зможе скористатися веб клієнтом</t>
-  </si>
-  <si>
-    <t>Використання технологій з зворотньою сумісністю</t>
-  </si>
-  <si>
-    <t>Запропонувати користувачам текстовий маршрут</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скарги користувачів на проблеми із запуском додатка
-</t>
   </si>
   <si>
     <t>Галунько Б.В.</t>
@@ -188,6 +121,72 @@
   </si>
   <si>
     <t>Користувачі масово повідомляють про плутанину в локаціях</t>
+  </si>
+  <si>
+    <t>Відсутність розуміння програми у волонтерів</t>
+  </si>
+  <si>
+    <t>Якщо у гостей будуть питання щодо використання застоснку, волонтери не зможуть допомогти</t>
+  </si>
+  <si>
+    <t>Ознайомлення усіх волонтерів з інтерфейсом завчасно</t>
+  </si>
+  <si>
+    <t>Провести гостя до аудиторії без використання застосунку</t>
+  </si>
+  <si>
+    <t>Гость загубився, не розуміє як скористатися застосунком</t>
+  </si>
+  <si>
+    <t>Брак досвіду у команди</t>
+  </si>
+  <si>
+    <t>Дотримання вказівок від викладача, побудова грамотної взаємодії в команді</t>
+  </si>
+  <si>
+    <t>Проблеми під час розробки</t>
+  </si>
+  <si>
+    <t>Звернення за допомогою до викладачів</t>
+  </si>
+  <si>
+    <t>Невідповідність можливостей технології GPS і очікувань замовника</t>
+  </si>
+  <si>
+    <t>Замовник буде не задоволений результатом</t>
+  </si>
+  <si>
+    <t>Недостатня робоча сила щоб виконати завдання в терміни</t>
+  </si>
+  <si>
+    <t>Мотивація усіх членів команди</t>
+  </si>
+  <si>
+    <t>Консультації з викладачем, спілкування в команді</t>
+  </si>
+  <si>
+    <t>Частина команди не виходить на зв'язок або не виконує своїх обов'язків</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Низька зацікавленість команди у виконанні завдання </t>
+  </si>
+  <si>
+    <t>Несподівана зміна локації спеціальності</t>
+  </si>
+  <si>
+    <t>Програма не буде відповідати поставленим задачам</t>
+  </si>
+  <si>
+    <t>Обговорення локації з викладачами передчасно</t>
+  </si>
+  <si>
+    <t>Адаптація програми до новиї координат</t>
+  </si>
+  <si>
+    <t>Повідомлення про зміну локації</t>
+  </si>
+  <si>
+    <t>Вірогідність неправильної оцінки термінів, великої кількості помилок у фінальному продукті, або залучення додаткової допомоги</t>
   </si>
 </sst>
 </file>
@@ -246,7 +245,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -307,17 +312,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -328,8 +324,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +556,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -610,209 +612,209 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="11">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11">
-        <f t="shared" ref="F2:F21" si="0">D2*E2</f>
-        <v>2.7</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="8">
+        <f>D2*E2</f>
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <f>D3*E3</f>
+        <v>2.25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <f>D4*E4</f>
+        <v>1.4</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="E3" s="11">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>14</v>
+      <c r="J4" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="11">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="8">
+        <f>D5*E5</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="8">
         <v>1.5</v>
       </c>
-      <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="F6" s="8">
+        <f>D6*E6</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="6">
         <v>0.1</v>
@@ -821,24 +823,24 @@
         <v>1</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
+        <f>D8*E8</f>
         <v>0.1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
@@ -850,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="0"/>
+        <f>D9*E9</f>
         <v>0</v>
       </c>
       <c r="G9" s="6"/>
@@ -859,7 +861,7 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="0"/>
+        <f>D10*E10</f>
         <v>0</v>
       </c>
       <c r="G10" s="6"/>
@@ -880,7 +882,7 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
@@ -892,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="0"/>
+        <f>D11*E11</f>
         <v>0</v>
       </c>
       <c r="G11" s="6"/>
@@ -901,7 +903,7 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="6"/>
@@ -913,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="0"/>
+        <f>D12*E12</f>
         <v>0</v>
       </c>
       <c r="G12" s="6"/>
@@ -922,7 +924,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="6"/>
@@ -934,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
+        <f>D13*E13</f>
         <v>0</v>
       </c>
       <c r="G13" s="6"/>
@@ -943,7 +945,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="6"/>
@@ -955,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="0"/>
+        <f>D14*E14</f>
         <v>0</v>
       </c>
       <c r="G14" s="6"/>
@@ -964,7 +966,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
@@ -976,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="0"/>
+        <f>D15*E15</f>
         <v>0</v>
       </c>
       <c r="G15" s="6"/>
@@ -985,7 +987,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="6"/>
@@ -997,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="0"/>
+        <f>D16*E16</f>
         <v>0</v>
       </c>
       <c r="G16" s="6"/>
@@ -1006,7 +1008,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="6"/>
@@ -1018,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="0"/>
+        <f>D17*E17</f>
         <v>0</v>
       </c>
       <c r="G17" s="6"/>
@@ -1026,98 +1028,14 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
-    <sortCondition descending="1" ref="F2:F21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+    <sortCondition descending="1" ref="F2:F17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1128,7 +1046,7 @@
           <x14:formula1>
             <xm:f>Люди!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J21</xm:sqref>
+          <xm:sqref>J2:J17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1174,7 +1092,7 @@
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,7 +1107,7 @@
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
